--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>112.530174</v>
+        <v>90.25004833333332</v>
       </c>
       <c r="H2">
-        <v>337.590522</v>
+        <v>270.750145</v>
       </c>
       <c r="I2">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827933</v>
       </c>
       <c r="J2">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827932</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.10250466666666</v>
+        <v>32.736679</v>
       </c>
       <c r="N2">
-        <v>84.307514</v>
+        <v>98.210037</v>
       </c>
       <c r="O2">
-        <v>0.788839652922774</v>
+        <v>0.8346853755332739</v>
       </c>
       <c r="P2">
-        <v>0.788839652922774</v>
+        <v>0.834685375533274</v>
       </c>
       <c r="Q2">
-        <v>3162.379739975812</v>
+        <v>2954.486862022818</v>
       </c>
       <c r="R2">
-        <v>28461.41765978231</v>
+        <v>26590.38175820536</v>
       </c>
       <c r="S2">
-        <v>0.7409668258522056</v>
+        <v>0.7452551520088559</v>
       </c>
       <c r="T2">
-        <v>0.7409668258522056</v>
+        <v>0.7452551520088559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>112.530174</v>
+        <v>90.25004833333332</v>
       </c>
       <c r="H3">
-        <v>337.590522</v>
+        <v>270.750145</v>
       </c>
       <c r="I3">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827933</v>
       </c>
       <c r="J3">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827932</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.207793</v>
       </c>
       <c r="O3">
-        <v>0.001944255621151182</v>
+        <v>0.001766029048926899</v>
       </c>
       <c r="P3">
-        <v>0.001944255621151182</v>
+        <v>0.0017660290489269</v>
       </c>
       <c r="Q3">
-        <v>7.794327481994</v>
+        <v>6.251109431109444</v>
       </c>
       <c r="R3">
-        <v>70.148947337946</v>
+        <v>56.259984879985</v>
       </c>
       <c r="S3">
-        <v>0.001826263310816013</v>
+        <v>0.001576812396490352</v>
       </c>
       <c r="T3">
-        <v>0.001826263310816013</v>
+        <v>0.001576812396490353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>112.530174</v>
+        <v>90.25004833333332</v>
       </c>
       <c r="H4">
-        <v>337.590522</v>
+        <v>270.750145</v>
       </c>
       <c r="I4">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827933</v>
       </c>
       <c r="J4">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827932</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8073796666666667</v>
+        <v>0.5119106666666666</v>
       </c>
       <c r="N4">
-        <v>2.422139</v>
+        <v>1.535732</v>
       </c>
       <c r="O4">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="P4">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="Q4">
-        <v>90.85457437406201</v>
+        <v>46.19996240901555</v>
       </c>
       <c r="R4">
-        <v>817.691169366558</v>
+        <v>415.7996616811399</v>
       </c>
       <c r="S4">
-        <v>0.02128783736409113</v>
+        <v>0.0116537191112642</v>
       </c>
       <c r="T4">
-        <v>0.02128783736409113</v>
+        <v>0.0116537191112642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>112.530174</v>
+        <v>90.25004833333332</v>
       </c>
       <c r="H5">
-        <v>337.590522</v>
+        <v>270.750145</v>
       </c>
       <c r="I5">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827933</v>
       </c>
       <c r="J5">
-        <v>0.9393123470743489</v>
+        <v>0.8928575650827932</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.645968000000001</v>
+        <v>5.902527666666667</v>
       </c>
       <c r="N5">
-        <v>19.937904</v>
+        <v>17.707583</v>
       </c>
       <c r="O5">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="P5">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="Q5">
-        <v>747.871935438432</v>
+        <v>532.7034072055038</v>
       </c>
       <c r="R5">
-        <v>6730.847418945889</v>
+        <v>4794.330664849535</v>
       </c>
       <c r="S5">
-        <v>0.1752314205472361</v>
+        <v>0.1343718815661828</v>
       </c>
       <c r="T5">
-        <v>0.1752314205472361</v>
+        <v>0.1343718815661828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.566858</v>
       </c>
       <c r="I6">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="J6">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.10250466666666</v>
+        <v>32.736679</v>
       </c>
       <c r="N6">
-        <v>84.307514</v>
+        <v>98.210037</v>
       </c>
       <c r="O6">
-        <v>0.788839652922774</v>
+        <v>0.8346853755332739</v>
       </c>
       <c r="P6">
-        <v>0.788839652922774</v>
+        <v>0.834685375533274</v>
       </c>
       <c r="Q6">
-        <v>145.8225665301124</v>
+        <v>169.8690777948607</v>
       </c>
       <c r="R6">
-        <v>1312.403098771012</v>
+        <v>1528.821700153746</v>
       </c>
       <c r="S6">
-        <v>0.03416720733869422</v>
+        <v>0.04284866080160465</v>
       </c>
       <c r="T6">
-        <v>0.03416720733869422</v>
+        <v>0.04284866080160465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.566858</v>
       </c>
       <c r="I7">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="J7">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.207793</v>
       </c>
       <c r="O7">
-        <v>0.001944255621151182</v>
+        <v>0.001766029048926899</v>
       </c>
       <c r="P7">
-        <v>0.001944255621151182</v>
+        <v>0.0017660290489269</v>
       </c>
       <c r="Q7">
         <v>0.3594093471548889</v>
@@ -883,10 +883,10 @@
         <v>3.234684124394</v>
       </c>
       <c r="S7">
-        <v>8.42120254492297E-05</v>
+        <v>9.065928540427934E-05</v>
       </c>
       <c r="T7">
-        <v>8.421202544922968E-05</v>
+        <v>9.065928540427937E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.566858</v>
       </c>
       <c r="I8">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="J8">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8073796666666667</v>
+        <v>0.5119106666666666</v>
       </c>
       <c r="N8">
-        <v>2.422139</v>
+        <v>1.535732</v>
       </c>
       <c r="O8">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="P8">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="Q8">
-        <v>4.189454874362444</v>
+        <v>2.656280218895111</v>
       </c>
       <c r="R8">
-        <v>37.705093869262</v>
+        <v>23.906521970056</v>
       </c>
       <c r="S8">
-        <v>0.0009816174322983537</v>
+        <v>0.0006700339553906278</v>
       </c>
       <c r="T8">
-        <v>0.0009816174322983533</v>
+        <v>0.0006700339553906278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>15.566858</v>
       </c>
       <c r="I9">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="J9">
-        <v>0.04331324777107665</v>
+        <v>0.05133510428912089</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.645968000000001</v>
+        <v>5.902527666666667</v>
       </c>
       <c r="N9">
-        <v>19.937904</v>
+        <v>17.707583</v>
       </c>
       <c r="O9">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="P9">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="Q9">
-        <v>34.48561337618133</v>
+        <v>30.62793667602378</v>
       </c>
       <c r="R9">
-        <v>310.3705203856321</v>
+        <v>275.651430084214</v>
       </c>
       <c r="S9">
-        <v>0.008080210974634848</v>
+        <v>0.007725750246721328</v>
       </c>
       <c r="T9">
-        <v>0.008080210974634846</v>
+        <v>0.00772575024672133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.878547</v>
+        <v>5.380476000000001</v>
       </c>
       <c r="H10">
-        <v>5.635641</v>
+        <v>16.141428</v>
       </c>
       <c r="I10">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968605</v>
       </c>
       <c r="J10">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968604</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.10250466666666</v>
+        <v>32.736679</v>
       </c>
       <c r="N10">
-        <v>84.307514</v>
+        <v>98.210037</v>
       </c>
       <c r="O10">
-        <v>0.788839652922774</v>
+        <v>0.8346853755332739</v>
       </c>
       <c r="P10">
-        <v>0.788839652922774</v>
+        <v>0.834685375533274</v>
       </c>
       <c r="Q10">
-        <v>52.79187583405266</v>
+        <v>176.138915679204</v>
       </c>
       <c r="R10">
-        <v>475.126882506474</v>
+        <v>1585.250241112836</v>
       </c>
       <c r="S10">
-        <v>0.01236949129576733</v>
+        <v>0.04443019736066995</v>
       </c>
       <c r="T10">
-        <v>0.01236949129576733</v>
+        <v>0.04443019736066995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.878547</v>
+        <v>5.380476000000001</v>
       </c>
       <c r="H11">
-        <v>5.635641</v>
+        <v>16.141428</v>
       </c>
       <c r="I11">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968605</v>
       </c>
       <c r="J11">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968604</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.207793</v>
       </c>
       <c r="O11">
-        <v>0.001944255621151182</v>
+        <v>0.001766029048926899</v>
       </c>
       <c r="P11">
-        <v>0.001944255621151182</v>
+        <v>0.0017660290489269</v>
       </c>
       <c r="Q11">
-        <v>0.1301163055903333</v>
+        <v>0.372675083156</v>
       </c>
       <c r="R11">
-        <v>1.171046750313</v>
+        <v>3.354075748404</v>
       </c>
       <c r="S11">
-        <v>3.048712484656327E-05</v>
+        <v>9.400550373650393E-05</v>
       </c>
       <c r="T11">
-        <v>3.048712484656326E-05</v>
+        <v>9.400550373650394E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.878547</v>
+        <v>5.380476000000001</v>
       </c>
       <c r="H12">
-        <v>5.635641</v>
+        <v>16.141428</v>
       </c>
       <c r="I12">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968605</v>
       </c>
       <c r="J12">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968604</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8073796666666667</v>
+        <v>0.5119106666666666</v>
       </c>
       <c r="N12">
-        <v>2.422139</v>
+        <v>1.535732</v>
       </c>
       <c r="O12">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="P12">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="Q12">
-        <v>1.516700650677667</v>
+        <v>2.754323056144</v>
       </c>
       <c r="R12">
-        <v>13.650305856099</v>
+        <v>24.788907505296</v>
       </c>
       <c r="S12">
-        <v>0.0003553731554418577</v>
+        <v>0.0006947647912310264</v>
       </c>
       <c r="T12">
-        <v>0.0003553731554418575</v>
+        <v>0.0006947647912310264</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.878547</v>
+        <v>5.380476000000001</v>
       </c>
       <c r="H13">
-        <v>5.635641</v>
+        <v>16.141428</v>
       </c>
       <c r="I13">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968605</v>
       </c>
       <c r="J13">
-        <v>0.01568061550904095</v>
+        <v>0.05322987398968604</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.645968000000001</v>
+        <v>5.902527666666667</v>
       </c>
       <c r="N13">
-        <v>19.937904</v>
+        <v>17.707583</v>
       </c>
       <c r="O13">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="P13">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="Q13">
-        <v>12.484763248496</v>
+        <v>31.758408449836</v>
       </c>
       <c r="R13">
-        <v>112.362869236464</v>
+        <v>285.825676048524</v>
       </c>
       <c r="S13">
-        <v>0.002925263932985199</v>
+        <v>0.008010906334048565</v>
       </c>
       <c r="T13">
-        <v>0.002925263932985198</v>
+        <v>0.008010906334048567</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.202917</v>
+        <v>0.2605293333333333</v>
       </c>
       <c r="H14">
-        <v>0.608751</v>
+        <v>0.7815879999999999</v>
       </c>
       <c r="I14">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="J14">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.10250466666666</v>
+        <v>32.736679</v>
       </c>
       <c r="N14">
-        <v>84.307514</v>
+        <v>98.210037</v>
       </c>
       <c r="O14">
-        <v>0.788839652922774</v>
+        <v>0.8346853755332739</v>
       </c>
       <c r="P14">
-        <v>0.788839652922774</v>
+        <v>0.834685375533274</v>
       </c>
       <c r="Q14">
-        <v>5.702475939446</v>
+        <v>8.528865155417334</v>
       </c>
       <c r="R14">
-        <v>51.322283455014</v>
+        <v>76.75978639875599</v>
       </c>
       <c r="S14">
-        <v>0.001336128436106853</v>
+        <v>0.002151365362143381</v>
       </c>
       <c r="T14">
-        <v>0.001336128436106852</v>
+        <v>0.002151365362143381</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.202917</v>
+        <v>0.2605293333333333</v>
       </c>
       <c r="H15">
-        <v>0.608751</v>
+        <v>0.7815879999999999</v>
       </c>
       <c r="I15">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="J15">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.207793</v>
       </c>
       <c r="O15">
-        <v>0.001944255621151182</v>
+        <v>0.001766029048926899</v>
       </c>
       <c r="P15">
-        <v>0.001944255621151182</v>
+        <v>0.0017660290489269</v>
       </c>
       <c r="Q15">
-        <v>0.014054910727</v>
+        <v>0.01804539058711111</v>
       </c>
       <c r="R15">
-        <v>0.126494196543</v>
+        <v>0.162408515284</v>
       </c>
       <c r="S15">
-        <v>3.293160039376221E-06</v>
+        <v>4.551863295763338E-06</v>
       </c>
       <c r="T15">
-        <v>3.29316003937622E-06</v>
+        <v>4.551863295763339E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.202917</v>
+        <v>0.2605293333333333</v>
       </c>
       <c r="H16">
-        <v>0.608751</v>
+        <v>0.7815879999999999</v>
       </c>
       <c r="I16">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="J16">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8073796666666667</v>
+        <v>0.5119106666666666</v>
       </c>
       <c r="N16">
-        <v>2.422139</v>
+        <v>1.535732</v>
       </c>
       <c r="O16">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="P16">
-        <v>0.02266321467017418</v>
+        <v>0.01305215923234471</v>
       </c>
       <c r="Q16">
-        <v>0.163831059821</v>
+        <v>0.1333677447128889</v>
       </c>
       <c r="R16">
-        <v>1.474479538389</v>
+        <v>1.200309702416</v>
       </c>
       <c r="S16">
-        <v>3.838671834284447E-05</v>
+        <v>3.364137445885676E-05</v>
       </c>
       <c r="T16">
-        <v>3.838671834284446E-05</v>
+        <v>3.364137445885676E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.202917</v>
+        <v>0.2605293333333333</v>
       </c>
       <c r="H17">
-        <v>0.608751</v>
+        <v>0.7815879999999999</v>
       </c>
       <c r="I17">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="J17">
-        <v>0.001693789645533523</v>
+        <v>0.002577456638399696</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.645968000000001</v>
+        <v>5.902527666666667</v>
       </c>
       <c r="N17">
-        <v>19.937904</v>
+        <v>17.707583</v>
       </c>
       <c r="O17">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="P17">
-        <v>0.1865528767859006</v>
+        <v>0.1504964361854544</v>
       </c>
       <c r="Q17">
-        <v>1.348579888656</v>
+        <v>1.537781597978222</v>
       </c>
       <c r="R17">
-        <v>12.137218997904</v>
+        <v>13.840034381804</v>
       </c>
       <c r="S17">
-        <v>0.0003159813310444496</v>
+        <v>0.0003878980385016958</v>
       </c>
       <c r="T17">
-        <v>0.0003159813310444496</v>
+        <v>0.0003878980385016958</v>
       </c>
     </row>
   </sheetData>
